--- a/docs/ST3/ST3_30.07.24v_output.xlsx
+++ b/docs/ST3/ST3_30.07.24v_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731676307.0953002</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731676307.3334963</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731676307.0953002.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBER1731676307.3334963.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>291.33</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>291.64</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.3100000000000023</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731676321.8158524</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731676322.7299871</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731676321.8158524.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731676322.7299871.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>132.4</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>132.47</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.06999999999999318</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.05</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731676330.2485695</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731676331.2654202</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731676330.2485695.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731676331.2654202.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>6810.5</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>6801</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-9.5</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.14</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731676331.5228355</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731676331.5228355.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731676331.5228355.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>6801.5</v>
       </c>
-      <c r="J6" t="n">
-        <v>6801.5</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>6802.5</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731676339.1433997</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731676339.455184</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731676339.1433997.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731676339.455184.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>512</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>512.8</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.7999999999999545</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.16</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731676339.6991568</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731676340.4871368</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731676339.6991568.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731676340.4871368.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>512.4</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>512</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.3999999999999773</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.08</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731676344.6949184</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731676350.3026938</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676344.6949184.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676350.3026938.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>1048.8</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>1047.2</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-1.599999999999909</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>-0.15</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731676350.3175778</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731676351.0903068</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676350.3175778.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676351.0903068.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>1047.2</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>1042.6</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>4.600000000000136</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>0.44</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731676352.345768</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731676352.7199175</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676352.345768.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731676352.7199175.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>1042.2</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>1044.2</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-2</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.19</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731676358.2325573</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731676358.525571</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676358.2325573.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731676358.525571.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>127.38</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>127.56</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.1800000000000068</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.14</v>
       </c>
     </row>
@@ -1051,95 +1127,107 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731676359.8941834</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731676359.8941834.png</t>
         </is>
       </c>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731676359.8941834.png</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>127.42</v>
       </c>
-      <c r="J13" t="n">
-        <v>127.42</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0</v>
-      </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>127.38</v>
+      </c>
+      <c r="M13" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731676366.0011806</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731676366.6638153</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676366.0011806.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731676366.6638153.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>166.48</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>166.3</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-0.1799999999999784</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>-0.11</v>
       </c>
     </row>
@@ -1147,95 +1235,107 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731676368.8752754</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731676368.8752754.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731676368.8752754.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>165.66</v>
       </c>
-      <c r="J15" t="n">
-        <v>165.66</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
-      </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>165.68</v>
+      </c>
+      <c r="M15" t="n">
+        <v>-0.02000000000001023</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731676370.2816873</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731676375.0484297</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676370.2816873.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731676375.0484297.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>51.74</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>51.445</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-0.2950000000000017</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>-0.5700000000000001</v>
       </c>
     </row>
@@ -1243,51 +1343,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731676379.0222182</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731676380.1363416</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676379.0222182.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731676380.1363416.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>1420.4</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>1421.8</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>1.399999999999864</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.1</v>
       </c>
     </row>
@@ -1295,51 +1401,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731676390.9940295</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731676392.8524916</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676390.9940295.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731676392.8524916.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>60.61</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>60.49</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-0.1199999999999974</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>-0.2</v>
       </c>
     </row>
@@ -1347,43 +1459,49 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731676396.9396985</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731676396.9396985.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731676396.9396985.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>60.4</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>60.4</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0</v>
       </c>
-      <c r="L19" t="n">
+      <c r="N19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1391,51 +1509,57 @@
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731676401.681731</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731676403.5756984</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676401.681731.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731676403.5756984.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>141.46</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>141.12</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-0.3400000000000034</v>
       </c>
-      <c r="L20" t="n">
+      <c r="N20" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -1443,95 +1567,107 @@
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731676405.1164274</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731676405.1164274.png</t>
         </is>
       </c>
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731676405.1164274.png</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>141.02</v>
       </c>
-      <c r="J21" t="n">
-        <v>141.02</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>140.78</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0.2400000000000091</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731676407.8166904</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731676409.3225648</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676407.8166904.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676409.3225648.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>54.08</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>53.85</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>-0.2299999999999969</v>
       </c>
-      <c r="L22" t="n">
+      <c r="N22" t="n">
         <v>-0.43</v>
       </c>
     </row>
@@ -1539,51 +1675,57 @@
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731676411.1295352</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731676411.940492</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676411.1295352.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676411.940492.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>53.86</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>53.9</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>-0.03999999999999915</v>
       </c>
-      <c r="L23" t="n">
+      <c r="N23" t="n">
         <v>-0.06999999999999999</v>
       </c>
     </row>
@@ -1591,51 +1733,57 @@
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731676414.0921676</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731676414.300521</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676414.0921676.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676414.300521.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>53.72</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>53.6</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.1199999999999974</v>
       </c>
-      <c r="L24" t="n">
+      <c r="N24" t="n">
         <v>0.22</v>
       </c>
     </row>
@@ -1643,51 +1791,57 @@
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>ABIO</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731676414.6823466</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731676415.0022776</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676414.6823466.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/ABIO1731676415.0022776.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>53.62</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>53.44</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>0.1799999999999997</v>
       </c>
-      <c r="L25" t="n">
+      <c r="N25" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -1695,137 +1849,159 @@
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>BSPB</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731676423.7118673</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/BSPB1731676423.7118673.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/BSPB1731676423.7118673.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>371.99</v>
       </c>
-      <c r="J26" t="n">
-        <v>371.99</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>371.92</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0.06999999999999318</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731676431.462026</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731676431.462026.png</t>
         </is>
       </c>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731676431.462026.png</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
-      <c r="L27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>3018.15</v>
+      </c>
+      <c r="M27" t="n">
+        <v>-3018.15</v>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731676439.173749</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731676439.6869314</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676439.173749.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/RUAL1731676439.6869314.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>34.615</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>34.56</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>-0.05499999999999972</v>
       </c>
-      <c r="L28" t="n">
+      <c r="N28" t="n">
         <v>-0.16</v>
       </c>
     </row>
@@ -1833,44 +2009,50 @@
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>RUAL</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731676441.784078</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/RUAL1731676441.784078.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/RUAL1731676441.784078.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>ST3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>ST3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>34.395</v>
       </c>
-      <c r="J29" t="n">
-        <v>34.395</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>34.53</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-0.134999999999998</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.39</v>
       </c>
     </row>
   </sheetData>
@@ -1997,19 +2179,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1800000000000068</v>
+        <v>0.1400000000000006</v>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09000000000000341</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="E5" t="n">
-        <v>0.14</v>
+        <v>0.11</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="6">
@@ -2019,19 +2201,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>-4.75</v>
+        <v>-5.25</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.14</v>
+        <v>-0.15</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.08</v>
       </c>
     </row>
     <row r="7">
@@ -2041,16 +2223,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.1799999999999784</v>
+        <v>-0.1999999999999886</v>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0899999999999892</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.11</v>
+        <v>-0.12</v>
       </c>
       <c r="F7" t="n">
         <v>-0.06</v>
@@ -2085,19 +2267,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.05499999999999972</v>
+        <v>-0.1899999999999977</v>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.02749999999999986</v>
+        <v>-0.09499999999999886</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.16</v>
+        <v>-0.5499999999999999</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08</v>
+        <v>-0.27</v>
       </c>
     </row>
     <row r="10">
@@ -2107,19 +2289,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.3400000000000034</v>
+        <v>-0.09999999999999432</v>
       </c>
       <c r="C10" t="n">
         <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1700000000000017</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.24</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.12</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11">
@@ -2129,19 +2311,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.06999999999999318</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="12">
@@ -2217,19 +2399,23 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>-3018.15</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
+        <v>-3018.15</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
       </c>
     </row>
     <row r="16">
